--- a/configs/attributes_appius.xlsx
+++ b/configs/attributes_appius.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demidov_ai\Documents\Демидов\Питон\appius-mto-neosintez\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\demid\Documents\python\work_projects\appius-mto-neosintez\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816BD214-0CAC-4A5C-AC79-AAD2625E18A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52762981-661A-4FC1-8104-30CB50B50BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46770" yWindow="1830" windowWidth="29085" windowHeight="17655" xr2:uid="{ACD5EDCE-5462-4D4A-8670-E1A96D14B552}"/>
+    <workbookView xWindow="0" yWindow="1188" windowWidth="23040" windowHeight="10020" xr2:uid="{ACD5EDCE-5462-4D4A-8670-E1A96D14B552}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -45,12 +45,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>Подобъект</t>
-  </si>
-  <si>
-    <t>2255f35e-5e60-e911-8115-817c3f53a992</t>
-  </si>
-  <si>
     <t>folder</t>
   </si>
   <si>
@@ -66,24 +60,12 @@
     <t>regexp_name</t>
   </si>
   <si>
-    <t>№ поз. по ГП</t>
-  </si>
-  <si>
     <t>Обозначение</t>
   </si>
   <si>
-    <t>Раздел проекта</t>
-  </si>
-  <si>
-    <t>Изм.</t>
-  </si>
-  <si>
     <t>Состояние</t>
   </si>
   <si>
-    <t>Веб-ссылка</t>
-  </si>
-  <si>
     <t>eca1653c-f39f-ea11-9102-005056b6e70e</t>
   </si>
   <si>
@@ -118,6 +100,48 @@
   </si>
   <si>
     <t>1826a95a-54f6-e911-80cf-9706d383f138</t>
+  </si>
+  <si>
+    <t>Оригинал</t>
+  </si>
+  <si>
+    <t>c60bff0b-8759-ec11-911a-005056b6948b</t>
+  </si>
+  <si>
+    <t>Номер изменения</t>
+  </si>
+  <si>
+    <t>Марка раздела.Шифр обозначения</t>
+  </si>
+  <si>
+    <t>Объект строительства</t>
+  </si>
+  <si>
+    <t>Дата присвоения состояния</t>
+  </si>
+  <si>
+    <t>0d09e9d9-5fbc-ea11-9103-005056b6e70e</t>
+  </si>
+  <si>
+    <t>Объект генплана номер</t>
+  </si>
+  <si>
+    <t>b535c92d-4d7c-ed11-9153-005056b6948b</t>
+  </si>
+  <si>
+    <t>e2cba4ee-487c-ed11-9153-005056b6948b</t>
+  </si>
+  <si>
+    <t>ead605bb-5a7c-ed11-9153-005056b6948b</t>
+  </si>
+  <si>
+    <t>664537bd-3bc9-ed11-9163-005056b6948b</t>
+  </si>
+  <si>
+    <t>Оригинал-номерГП</t>
+  </si>
+  <si>
+    <t>Веб ссылка</t>
   </si>
 </sst>
 </file>
@@ -158,7 +182,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -174,9 +198,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +238,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -320,7 +344,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -470,24 +494,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C59750-CE11-4137-A397-5E625D311B92}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,69 +522,69 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -568,52 +592,91 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9">
+      <c r="B11">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
